--- a/ResourceFiles/Liberty's Delightful Sinful Bakery & Cafe - Customer feedback.xlsx
+++ b/ResourceFiles/Liberty's Delightful Sinful Bakery & Cafe - Customer feedback.xlsx
@@ -52,6 +52,7 @@
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Aptos Narrow"/>
@@ -63,17 +64,19 @@
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>フィードバック評価</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      <t>フィードバックの評価</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Aptos Narrow"/>
@@ -91,7 +94,7 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>エンゲージメント率</t>
+      <t>エンゲージメントの評価</t>
     </r>
   </si>
   <si>
@@ -168,7 +171,7 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>店舗</t>
+      <t>店舗内</t>
     </r>
   </si>
   <si>
@@ -223,7 +226,7 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>評価 - 1 から 5、1 が最悪、5 が最高</t>
+      <t>評価 - 1 から 5、1 が最低、5 が最高</t>
     </r>
   </si>
   <si>
@@ -377,7 +380,7 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>店舗</t>
+      <t>店舗内</t>
     </r>
   </si>
   <si>
@@ -423,7 +426,7 @@
     <numFmt numFmtId="177" formatCode="@"/>
     <numFmt numFmtId="178" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,12 +442,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Aptos Narrow"/>
@@ -681,9 +678,9 @@
   <tableColumns count="5">
     <tableColumn id="1" name="日付" dataDxfId="4"/>
     <tableColumn id="3" name="フィードバックの種類" dataDxfId="3"/>
-    <tableColumn id="4" name="フィードバック評価" dataDxfId="2"/>
+    <tableColumn id="4" name="フィードバックの評価" dataDxfId="2"/>
     <tableColumn id="5" name="エンゲージメントの種類" dataDxfId="1"/>
-    <tableColumn id="6" name="エンゲージメント率" dataDxfId="0"/>
+    <tableColumn id="6" name="エンゲージメントの評価" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/ResourceFiles/Liberty's Delightful Sinful Bakery & Cafe - Customer feedback.xlsx
+++ b/ResourceFiles/Liberty's Delightful Sinful Bakery & Cafe - Customer feedback.xlsx
@@ -204,7 +204,7 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>サービス</t>
+      <t>Service</t>
     </r>
   </si>
   <si>
@@ -259,7 +259,7 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>サービス</t>
+      <t>Service</t>
     </r>
   </si>
   <si>
